--- a/РАБОЧИЙ СТОЛ/22,07,25 Ост КИ филиалы/Ротация НВ 21.07.2025г..xlsx
+++ b/РАБОЧИЙ СТОЛ/22,07,25 Ост КИ филиалы/Ротация НВ 21.07.2025г..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\22,07,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\22,07,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF36730-BA0C-44D1-808A-0DABE6F37179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3E399-1099-4600-B61D-498D0912EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,17 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Ротация 21.07.25</t>
   </si>
@@ -128,6 +122,9 @@
   <si>
     <t>вместо 7146</t>
   </si>
+  <si>
+    <t>название 6620</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -207,8 +204,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -227,7 +222,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="КИ_ПФ"/>
@@ -39370,11 +39365,12 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="4" width="58.7109375" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" customWidth="1"/>
@@ -39398,7 +39394,6 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -39410,7 +39405,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="1" t="str">
         <f>RIGHT(B4,4)&amp;" "&amp;C4</f>
         <v>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</v>
       </c>
@@ -39429,7 +39424,7 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" ref="D5:D14" si="0">RIGHT(B5,4)&amp;" "&amp;C5</f>
         <v>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</v>
       </c>
@@ -39448,7 +39443,7 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</v>
       </c>
@@ -39467,7 +39462,7 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6459 СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</v>
       </c>
@@ -39486,7 +39481,7 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</v>
       </c>
@@ -39505,7 +39500,7 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7231 КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</v>
       </c>
@@ -39524,7 +39519,7 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6279 КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с</v>
       </c>
@@ -39543,7 +39538,7 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7092 БЕКОН Папа может с/к с/н в/у 1/140_50с</v>
       </c>
@@ -39562,7 +39557,7 @@
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6724 МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</v>
       </c>
@@ -39581,7 +39576,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5707 ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250 8шт.</v>
       </c>
@@ -39600,7 +39595,7 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</v>
       </c>
@@ -39625,7 +39620,6 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -39637,7 +39631,10 @@
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="E18" t="str">
+        <f>RIGHT(B18,4)</f>
+        <v>7257</v>
+      </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
@@ -39652,7 +39649,10 @@
       <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="E19" t="str">
+        <f t="shared" ref="E19:E29" si="1">RIGHT(B19,4)</f>
+        <v>6762</v>
+      </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
@@ -39667,7 +39667,10 @@
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>6767</v>
+      </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
@@ -39682,7 +39685,10 @@
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>6759</v>
+      </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
@@ -39697,7 +39703,10 @@
       <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>7146</v>
+      </c>
       <c r="F22" s="9" t="s">
         <v>28</v>
       </c>
@@ -39712,7 +39721,10 @@
       <c r="C23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>6764</v>
+      </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
@@ -39727,7 +39739,10 @@
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>6761</v>
+      </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
@@ -39742,7 +39757,10 @@
       <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>7125</v>
+      </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
@@ -39757,7 +39775,10 @@
       <c r="C26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>6888</v>
+      </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
@@ -39772,7 +39793,10 @@
       <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>7144</v>
+      </c>
       <c r="F27" t="s">
         <v>27</v>
       </c>
@@ -39787,17 +39811,27 @@
       <c r="C28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>7150</v>
+      </c>
       <c r="F28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>6620</v>
       </c>
       <c r="F29" t="s">
         <v>27</v>
